--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna3-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna3-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Efna3</t>
   </si>
   <si>
     <t>Epha4</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H2">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I2">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J2">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N2">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q2">
-        <v>2.468924920229333</v>
+        <v>2.067291105877111</v>
       </c>
       <c r="R2">
-        <v>22.220324282064</v>
+        <v>18.605619952894</v>
       </c>
       <c r="S2">
-        <v>0.2378981271985593</v>
+        <v>0.2210602782869321</v>
       </c>
       <c r="T2">
-        <v>0.2378981271985592</v>
+        <v>0.2210602782869321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H3">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I3">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J3">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P3">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q3">
-        <v>3.644988363556666</v>
+        <v>2.801685820042778</v>
       </c>
       <c r="R3">
-        <v>32.80489527201</v>
+        <v>25.215172380385</v>
       </c>
       <c r="S3">
-        <v>0.3512200384247106</v>
+        <v>0.2995908245773802</v>
       </c>
       <c r="T3">
-        <v>0.3512200384247106</v>
+        <v>0.2995908245773802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,46 +661,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H4">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I4">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J4">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q4">
-        <v>0.1529920443366667</v>
+        <v>0.006448847071333333</v>
       </c>
       <c r="R4">
-        <v>1.37692839903</v>
+        <v>0.058039623642</v>
       </c>
       <c r="S4">
-        <v>0.01474184999541871</v>
+        <v>0.0006895903166061202</v>
       </c>
       <c r="T4">
-        <v>0.01474184999541871</v>
+        <v>0.0006895903166061202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H5">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I5">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J5">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N5">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q5">
-        <v>0.01411560016466667</v>
+        <v>0.094790935512</v>
       </c>
       <c r="R5">
-        <v>0.127040401482</v>
+        <v>0.8531184196080001</v>
       </c>
       <c r="S5">
-        <v>0.001360136477194272</v>
+        <v>0.01013621667688197</v>
       </c>
       <c r="T5">
-        <v>0.001360136477194272</v>
+        <v>0.01013621667688197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>0.616247</v>
       </c>
       <c r="I6">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J6">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N6">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q6">
-        <v>1.610458278891556</v>
+        <v>1.754364963050444</v>
       </c>
       <c r="R6">
-        <v>14.494124510024</v>
+        <v>15.789284667454</v>
       </c>
       <c r="S6">
-        <v>0.1551788818447053</v>
+        <v>0.1875983531522185</v>
       </c>
       <c r="T6">
-        <v>0.1551788818447052</v>
+        <v>0.1875983531522185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>0.616247</v>
       </c>
       <c r="I7">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J7">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P7">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q7">
         <v>2.377594246976111</v>
@@ -883,10 +883,10 @@
         <v>21.398348222785</v>
       </c>
       <c r="S7">
-        <v>0.2290977801549128</v>
+        <v>0.2542417197054353</v>
       </c>
       <c r="T7">
-        <v>0.2290977801549128</v>
+        <v>0.2542417197054353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,40 +915,40 @@
         <v>0.616247</v>
       </c>
       <c r="I8">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J8">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N8">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q8">
-        <v>0.09979538153944444</v>
+        <v>0.005472684191333333</v>
       </c>
       <c r="R8">
-        <v>0.8981584338549999</v>
+        <v>0.04925415772199999</v>
       </c>
       <c r="S8">
-        <v>0.009615980695392811</v>
+        <v>0.000585206934269351</v>
       </c>
       <c r="T8">
-        <v>0.009615980695392809</v>
+        <v>0.000585206934269351</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,40 +977,288 @@
         <v>0.616247</v>
       </c>
       <c r="I9">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J9">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N9">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q9">
-        <v>0.009207483370777779</v>
+        <v>0.080442418392</v>
       </c>
       <c r="R9">
-        <v>0.082867350337</v>
+        <v>0.7239817655280001</v>
       </c>
       <c r="S9">
-        <v>0.0008872052091063365</v>
+        <v>0.008601896145760528</v>
       </c>
       <c r="T9">
-        <v>0.0008872052091063364</v>
+        <v>0.008601896145760528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H10">
+        <v>0.023905</v>
+      </c>
+      <c r="I10">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J10">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.540560666666666</v>
+      </c>
+      <c r="N10">
+        <v>25.621682</v>
+      </c>
+      <c r="O10">
+        <v>0.4159358086620884</v>
+      </c>
+      <c r="P10">
+        <v>0.4159358086620884</v>
+      </c>
+      <c r="Q10">
+        <v>0.06805403424555555</v>
+      </c>
+      <c r="R10">
+        <v>0.6124863082099999</v>
+      </c>
+      <c r="S10">
+        <v>0.007277177222937851</v>
+      </c>
+      <c r="T10">
+        <v>0.007277177222937851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H11">
+        <v>0.023905</v>
+      </c>
+      <c r="I11">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J11">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N11">
+        <v>34.723655</v>
+      </c>
+      <c r="O11">
+        <v>0.563694901924408</v>
+      </c>
+      <c r="P11">
+        <v>0.563694901924408</v>
+      </c>
+      <c r="Q11">
+        <v>0.09222988586388887</v>
+      </c>
+      <c r="R11">
+        <v>0.830068972775</v>
+      </c>
+      <c r="S11">
+        <v>0.009862357641592462</v>
+      </c>
+      <c r="T11">
+        <v>0.009862357641592462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H12">
+        <v>0.023905</v>
+      </c>
+      <c r="I12">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J12">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.026642</v>
+      </c>
+      <c r="N12">
+        <v>0.079926</v>
+      </c>
+      <c r="O12">
+        <v>0.001297498167494471</v>
+      </c>
+      <c r="P12">
+        <v>0.001297498167494471</v>
+      </c>
+      <c r="Q12">
+        <v>0.0002122923366666666</v>
+      </c>
+      <c r="R12">
+        <v>0.00191063103</v>
+      </c>
+      <c r="S12">
+        <v>2.27009166189999E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.27009166189999E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H13">
+        <v>0.023905</v>
+      </c>
+      <c r="I13">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J13">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.391608</v>
+      </c>
+      <c r="N13">
+        <v>1.174824</v>
+      </c>
+      <c r="O13">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="P13">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="Q13">
+        <v>0.00312046308</v>
+      </c>
+      <c r="R13">
+        <v>0.02808416772</v>
+      </c>
+      <c r="S13">
+        <v>0.0003336784233666134</v>
+      </c>
+      <c r="T13">
+        <v>0.0003336784233666134</v>
       </c>
     </row>
   </sheetData>
